--- a/results/I3_N5_M3_T15_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.5931942163227</v>
+        <v>450.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2070000171661377</v>
+        <v>0.2639999389648438</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.624823803610445</v>
+        <v>2.943331445828009</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.624823803610445</v>
+        <v>2.943331445828009</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.1100000010522</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.828571428571428</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.13947254724137</v>
+        <v>11.23570364914816</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37517619638956</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05666855417199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -987,7 +987,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.60999999999964</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999978</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.60299999999967</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>108.5810000000315</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>102.7300000000004</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>102.7300000000415</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>108.5810000000637</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>88.01900000001267</v>
+        <v>113.6</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.730000000041485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8.581000000063739</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
